--- a/data/trans_bre/MCS12_SP_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 11,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 21,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 19,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,19; 9,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,14; 297,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,69; 127,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,88; 145,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,8; 60,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,29%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 11,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,01; 20,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,92; 13,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 9,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,65; 84,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,83; 117,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,48; 84,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,05; 48,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,24%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,35; 14,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,65; 12,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,84; 12,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,83; 14,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,38; 79,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,37; 59,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,65; 83,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,27; 102,69</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,98</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,87%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 13,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,28; 15,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,46; 12,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,41; 38,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,02; 85,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,96; 84,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,81; 74,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,56; 179,66</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,32%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,28; 10,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,06; 12,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,13; 9,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,95; 13,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,28; 53,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,88; 57,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,36; 48,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,35; 70,74</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,15%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,75; 9,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,05; 12,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,83; 9,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,03; 16,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,44; 55,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,67; 60,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,06; 54,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,69; 81,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>11,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>49,97%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 11,95</t>
+          <t>-2,77; 20,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 21,26</t>
+          <t>-10,32; 16,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 19,85</t>
+          <t>-1,37; 24,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 9,36</t>
+          <t>-9,3; 15,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 297,34</t>
+          <t>-9,05; 118,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 127,1</t>
+          <t>-16,56; 31,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 145,29</t>
+          <t>-3,23; 66,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 60,98</t>
+          <t>-20,45; 51,55</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>10,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>17,81</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>76,35%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,64%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>21,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 11,22</t>
+          <t>4,82; 16,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 20,59</t>
+          <t>11,74; 23,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 13,64</t>
+          <t>1,05; 13,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 9,13</t>
+          <t>2,54; 13,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,65; 84,49</t>
+          <t>11,58; 43,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,83; 117,77</t>
+          <t>24,08; 57,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,48; 84,86</t>
+          <t>2,02; 29,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 48,3</t>
+          <t>6,55; 39,75</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>12,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>30,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,24%</t>
+          <t>27,47%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 14,13</t>
+          <t>8,39; 17,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 12,54</t>
+          <t>5,71; 14,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 12,39</t>
+          <t>2,56; 11,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 14,89</t>
+          <t>5,81; 16,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,38; 79,34</t>
+          <t>18,49; 43,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,37; 59,38</t>
+          <t>12,29; 34,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,65; 83,85</t>
+          <t>5,48; 28,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,27; 102,69</t>
+          <t>15,17; 51,87</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>10,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,61</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,98</t>
+          <t>14,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,16%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,87%</t>
+          <t>36,7%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 13,08</t>
+          <t>4,37; 15,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 15,27</t>
+          <t>5,96; 16,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 12,29</t>
+          <t>0,8; 11,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 38,41</t>
+          <t>5,9; 29,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,02; 85,6</t>
+          <t>9,27; 38,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,96; 84,23</t>
+          <t>12,61; 40,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,81; 74,25</t>
+          <t>1,82; 28,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 179,66</t>
+          <t>13,72; 82,56</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,06</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>24,99%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 10,51</t>
+          <t>4,58; 13,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 12,97</t>
+          <t>6,1; 14,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 9,9</t>
+          <t>0,84; 9,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 13,17</t>
+          <t>6,03; 15,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,28; 53,26</t>
+          <t>9,59; 31,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,88; 57,34</t>
+          <t>11,83; 31,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 48,16</t>
+          <t>1,66; 20,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,35; 70,74</t>
+          <t>13,69; 38,82</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,39</t>
+          <t>11,71</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>50,15%</t>
+          <t>27,82%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,75</t>
+          <t>8,16; 13,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,05; 12,6</t>
+          <t>9,37; 14,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,87</t>
+          <t>4,32; 9,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,03; 16,2</t>
+          <t>7,96; 16,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,44; 55,32</t>
+          <t>18,61; 31,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,67; 60,05</t>
+          <t>19,74; 32,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,06; 54,78</t>
+          <t>8,95; 20,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,69; 81,26</t>
+          <t>19,46; 43,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/MCS12_SP_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>16,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,83</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>21,45%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 20,29</t>
+          <t>4,56; 14,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 16,21</t>
+          <t>11,0; 21,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 24,97</t>
+          <t>2,97; 13,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 15,15</t>
+          <t>2,82; 13,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 118,31</t>
+          <t>10,76; 42,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 31,82</t>
+          <t>20,82; 46,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 66,45</t>
+          <t>5,77; 29,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 51,55</t>
+          <t>6,75; 37,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>13,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,81</t>
+          <t>10,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>15,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>47,86%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 16,05</t>
+          <t>9,0; 18,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,74; 23,64</t>
+          <t>5,64; 14,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 13,2</t>
+          <t>2,38; 11,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 13,47</t>
+          <t>6,15; 32,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 43,77</t>
+          <t>19,59; 44,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,08; 57,51</t>
+          <t>10,9; 31,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 29,29</t>
+          <t>4,87; 26,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 39,75</t>
+          <t>14,41; 188,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,99</t>
+          <t>11,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,45</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>18,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>46,73%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 17,56</t>
+          <t>5,36; 16,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 14,7</t>
+          <t>8,55; 19,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 11,92</t>
+          <t>1,17; 11,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 16,28</t>
+          <t>5,63; 38,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,49; 43,74</t>
+          <t>11,73; 41,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,29; 34,86</t>
+          <t>17,94; 45,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 28,16</t>
+          <t>2,37; 28,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,17; 51,87</t>
+          <t>13,21; 105,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>11,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,66</t>
+          <t>13,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>29,45%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 15,51</t>
+          <t>4,49; 13,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 16,67</t>
+          <t>7,61; 16,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 11,15</t>
+          <t>-0,0; 9,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 29,8</t>
+          <t>7,96; 21,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 38,34</t>
+          <t>9,07; 29,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,61; 40,02</t>
+          <t>13,71; 33,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 28,56</t>
+          <t>-0,08; 17,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,72; 82,56</t>
+          <t>17,19; 52,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,44</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,73</t>
+          <t>15,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>26,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>39,26%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 13,48</t>
+          <t>8,38; 13,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 14,84</t>
+          <t>10,48; 15,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 9,83</t>
+          <t>4,07; 8,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 15,34</t>
+          <t>9,64; 28,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,59; 31,18</t>
+          <t>18,68; 32,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,83; 31,81</t>
+          <t>20,88; 32,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 20,34</t>
+          <t>8,33; 19,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,69; 38,82</t>
+          <t>23,07; 88,87</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10,76</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>11,71</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,87</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>10,91</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>25,38%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>25,41%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>14,88%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>27,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>8,16; 13,15</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,37; 14,33</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 9,25</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,96; 16,71</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>18,61; 31,9</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>19,74; 32,01</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>8,95; 20,54</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>19,46; 43,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/MCS12_SP_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 14,91</t>
+          <t>4,35; 15,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 21,79</t>
+          <t>10,86; 22,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 13,19</t>
+          <t>2,89; 13,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 13,22</t>
+          <t>3,25; 13,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,76; 42,95</t>
+          <t>10,78; 43,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,82; 46,36</t>
+          <t>20,97; 48,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 29,14</t>
+          <t>5,48; 28,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 37,24</t>
+          <t>7,68; 38,84</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,0; 18,06</t>
+          <t>8,42; 17,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 14,52</t>
+          <t>5,56; 14,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 11,74</t>
+          <t>2,97; 12,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 32,95</t>
+          <t>6,09; 31,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,59; 44,66</t>
+          <t>18,27; 43,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,9; 31,73</t>
+          <t>11,06; 31,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 26,4</t>
+          <t>6,23; 27,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,41; 188,25</t>
+          <t>14,36; 182,39</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 16,48</t>
+          <t>5,73; 16,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,55; 19,23</t>
+          <t>8,68; 18,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 11,43</t>
+          <t>0,87; 11,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 38,67</t>
+          <t>5,55; 41,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 41,24</t>
+          <t>12,45; 39,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,94; 45,07</t>
+          <t>17,73; 44,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 28,75</t>
+          <t>1,79; 28,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 105,66</t>
+          <t>13,56; 116,77</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 13,37</t>
+          <t>4,78; 13,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,61; 16,55</t>
+          <t>7,28; 16,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 9,08</t>
+          <t>0,56; 9,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,96; 21,83</t>
+          <t>8,01; 22,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,07; 29,65</t>
+          <t>9,78; 30,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 33,1</t>
+          <t>13,16; 33,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 17,52</t>
+          <t>1,04; 18,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,19; 52,26</t>
+          <t>16,73; 53,76</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,38; 13,38</t>
+          <t>8,46; 13,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,48; 15,49</t>
+          <t>10,51; 15,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,99</t>
+          <t>4,3; 9,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,64; 28,22</t>
+          <t>9,41; 24,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,68; 32,1</t>
+          <t>18,96; 32,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,88; 32,63</t>
+          <t>20,82; 32,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,33; 19,23</t>
+          <t>8,64; 20,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,07; 88,87</t>
+          <t>22,65; 74,33</t>
         </is>
       </c>
     </row>
